--- a/config/regions.xlsx
+++ b/config/regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29AE965-A655-4E0E-9392-FB4A6EF1A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F93F5CD-D0A6-4EF3-8FAC-4844979833F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/config/regions.xlsx
+++ b/config/regions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F93F5CD-D0A6-4EF3-8FAC-4844979833F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B98817-A907-47B1-B8FA-D2851379A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="exiobase" sheetId="1" r:id="rId1"/>
+    <sheet name="Exiobase" sheetId="1" r:id="rId1"/>
     <sheet name="map" sheetId="4" r:id="rId2"/>
-    <sheet name="german" sheetId="2" r:id="rId3"/>
-    <sheet name="english" sheetId="3" r:id="rId4"/>
+    <sheet name="Deutsch" sheetId="2" r:id="rId3"/>
+    <sheet name="Englisch" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A50"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3436,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/regions.xlsx
+++ b/config/regions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B98817-A907-47B1-B8FA-D2851379A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7FEF61-765E-4B4D-B246-E3448DB1027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="298">
   <si>
     <t>region</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t>eSwatini</t>
+  </si>
+  <si>
+    <t>continent</t>
   </si>
 </sst>
 </file>
@@ -3437,7 +3440,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,10 +3451,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
